--- a/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3b_2.xlsx
+++ b/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3b_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/Dropbox/Endgame/Schisto coverage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\ntd-model-sch\sch_simulation\data\SCH_params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E1B971-0DC6-C744-974C-1B7AC26AD92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCC0179-F6AE-4DED-BCD1-29E67361623F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="3500" windowWidth="25640" windowHeight="13940" activeTab="1" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
   </bookViews>
   <sheets>
     <sheet name="Platform Coverage" sheetId="1" r:id="rId1"/>
@@ -450,13 +450,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43727F06-576E-E842-A2BC-01D7C17376ED}">
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:AD2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +548,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -604,7 +604,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -624,7 +624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -644,7 +644,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -664,7 +664,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -720,40 +720,40 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>79</v>
+        <v>0.79</v>
       </c>
       <c r="U6">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="V6">
-        <v>81</v>
+        <v>0.81</v>
       </c>
       <c r="W6">
-        <v>82</v>
+        <v>0.82</v>
       </c>
       <c r="X6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="Y6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="Z6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="AA6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="AB6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="AC6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="AD6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -812,37 +812,37 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>68</v>
+        <v>0.68</v>
       </c>
       <c r="V7">
-        <v>68.849999999999994</v>
+        <v>0.6885</v>
       </c>
       <c r="W7">
-        <v>69.7</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="X7">
-        <v>70.55</v>
+        <v>0.70550000000000002</v>
       </c>
       <c r="Y7">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="Z7">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AA7">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AB7">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AC7">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AD7">
-        <v>80.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+        <v>0.8075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -990,37 +990,37 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>68</v>
+        <v>0.68</v>
       </c>
       <c r="V9">
-        <v>68.849999999999994</v>
+        <v>0.6885</v>
       </c>
       <c r="W9">
-        <v>69.7</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="X9">
-        <v>70.55</v>
+        <v>0.70550000000000002</v>
       </c>
       <c r="Y9">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="Z9">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AA9">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AB9">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AC9">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AD9">
-        <v>80.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+        <v>0.8075</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>67.150000000000006</v>
+        <v>0.67149999999999999</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="Y11">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="AD11">
-        <v>45</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -1207,13 +1207,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7F2D99-6D6A-CD4F-83A8-836F61647DE0}">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>

--- a/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3b_2.xlsx
+++ b/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3b_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\ntd-model-sch\sch_simulation\data\SCH_params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCC0179-F6AE-4DED-BCD1-29E67361623F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A883EDAF-666C-482D-95E5-8DC9DDB98644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="18040" windowHeight="9170" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
   </bookViews>
   <sheets>
     <sheet name="Platform Coverage" sheetId="1" r:id="rId1"/>
@@ -450,13 +450,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43727F06-576E-E842-A2BC-01D7C17376ED}">
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +548,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -570,41 +570,74 @@
       <c r="H2">
         <v>0.6</v>
       </c>
+      <c r="I2">
+        <v>0.6</v>
+      </c>
       <c r="J2">
         <v>0.6</v>
       </c>
+      <c r="K2">
+        <v>0.6</v>
+      </c>
       <c r="L2">
         <v>0.6</v>
       </c>
+      <c r="M2">
+        <v>0.6</v>
+      </c>
       <c r="N2">
         <v>0.6</v>
       </c>
+      <c r="O2">
+        <v>0.6</v>
+      </c>
       <c r="P2">
         <v>0.6</v>
       </c>
+      <c r="Q2">
+        <v>0.6</v>
+      </c>
       <c r="R2">
         <v>0.6</v>
       </c>
+      <c r="S2">
+        <v>0.6</v>
+      </c>
       <c r="T2">
         <v>0.6</v>
       </c>
+      <c r="U2">
+        <v>0.6</v>
+      </c>
       <c r="V2">
         <v>0.6</v>
       </c>
+      <c r="W2">
+        <v>0.6</v>
+      </c>
       <c r="X2">
         <v>0.6</v>
       </c>
+      <c r="Y2">
+        <v>0.6</v>
+      </c>
       <c r="Z2">
         <v>0.6</v>
       </c>
+      <c r="AA2">
+        <v>0.6</v>
+      </c>
       <c r="AB2">
         <v>0.6</v>
       </c>
+      <c r="AC2">
+        <v>0.6</v>
+      </c>
       <c r="AD2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -624,7 +657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -644,7 +677,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -664,7 +697,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -753,7 +786,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -842,7 +875,7 @@
         <v>0.8075</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -931,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1020,7 +1053,7 @@
         <v>0.8075</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1109,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1211,9 +1244,9 @@
       <selection activeCell="A2" sqref="A1:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1326,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1304,7 +1337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1384,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1395,7 +1428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1406,7 +1439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1417,7 +1450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1428,7 +1461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1439,7 +1472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>

--- a/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3b_2.xlsx
+++ b/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3b_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\ntd-model-sch\sch_simulation\data\SCH_params\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgraham/Dropbox/ntd-model-sch/sch_simulation/data/Scenarios_8_3_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A883EDAF-666C-482D-95E5-8DC9DDB98644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CDB602-8FC2-4847-A749-992C8105AC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="18040" windowHeight="9170" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="50820" windowHeight="19260" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
   </bookViews>
   <sheets>
     <sheet name="Platform Coverage" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
   <si>
     <t>Country/Region</t>
   </si>
@@ -96,16 +96,26 @@
   </si>
   <si>
     <t>Old Product B (SOC)</t>
+  </si>
+  <si>
+    <t>Vector Control</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,9 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,15 +459,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43727F06-576E-E842-A2BC-01D7C17376ED}">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+      <selection activeCell="B12" sqref="B12:K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +559,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -568,76 +579,76 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="I2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="J2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="K2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="L2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="M2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="N2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="O2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="P2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="Q2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="R2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="S2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="T2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="U2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="V2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="W2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="X2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="Y2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="Z2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="AA2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="AB2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="AC2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="AD2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -657,7 +668,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -677,7 +688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -697,7 +708,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -786,7 +797,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -875,7 +886,7 @@
         <v>0.8075</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -964,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1053,7 +1064,7 @@
         <v>0.8075</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1142,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1229,6 +1240,17 @@
       </c>
       <c r="AD11">
         <v>0.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1E-8</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1E-8</v>
       </c>
     </row>
   </sheetData>
@@ -1244,9 +1266,9 @@
       <selection activeCell="A2" sqref="A1:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +1348,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1337,7 +1359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1428,7 +1450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1439,7 +1461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1450,7 +1472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1461,7 +1483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1472,7 +1494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>

--- a/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3b_2.xlsx
+++ b/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3b_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgraham/Dropbox/ntd-model-sch/sch_simulation/data/Scenarios_8_3_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CDB602-8FC2-4847-A749-992C8105AC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9775D4-8451-F24F-B3BC-A5155F437CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="50820" windowHeight="19260" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="21">
   <si>
     <t>Country/Region</t>
   </si>
@@ -459,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43727F06-576E-E842-A2BC-01D7C17376ED}">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:K12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,7 +685,7 @@
         <v>15</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
@@ -693,19 +693,88 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>65</v>
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0.79</v>
+      </c>
+      <c r="U5">
+        <v>0.8</v>
+      </c>
+      <c r="V5">
+        <v>0.81</v>
+      </c>
+      <c r="W5">
+        <v>0.82</v>
+      </c>
+      <c r="X5">
+        <v>0.95</v>
+      </c>
+      <c r="Y5">
+        <v>0.95</v>
+      </c>
+      <c r="Z5">
+        <v>0.95</v>
+      </c>
+      <c r="AA5">
+        <v>0.95</v>
+      </c>
+      <c r="AB5">
+        <v>0.95</v>
+      </c>
+      <c r="AC5">
+        <v>0.95</v>
+      </c>
+      <c r="AD5">
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
@@ -719,13 +788,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -764,37 +833,37 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="V6">
-        <v>0.81</v>
+        <v>0.6885</v>
       </c>
       <c r="W6">
-        <v>0.82</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="X6">
-        <v>0.95</v>
+        <v>0.70550000000000002</v>
       </c>
       <c r="Y6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
       <c r="Z6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
       <c r="AA6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
       <c r="AB6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
       <c r="AD6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
@@ -805,17 +874,17 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
       <c r="H7">
         <v>0</v>
       </c>
@@ -853,37 +922,37 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="U7">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.6885</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.69699999999999995</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.70550000000000002</v>
+        <v>0.45</v>
       </c>
       <c r="Y7">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -894,16 +963,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -942,37 +1011,37 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.6885</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="X8">
-        <v>0.45</v>
+        <v>0.70550000000000002</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>0.8075</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.8075</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>0.8075</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>0.8075</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>0.8075</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.8075</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -989,10 +1058,10 @@
         <v>14</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1031,37 +1100,37 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.67149999999999999</v>
       </c>
       <c r="U9">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.6885</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0.69699999999999995</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.70550000000000002</v>
+        <v>0.8075</v>
       </c>
       <c r="Y9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -1078,10 +1147,10 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1120,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.67149999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1132,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.8075</v>
+        <v>0.45</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1147,109 +1216,20 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11">
-        <v>15</v>
-      </c>
-      <c r="G11">
         <v>20</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0.45</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0.45</v>
-      </c>
-      <c r="Y11">
-        <v>0.45</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0.45</v>
-      </c>
-      <c r="AD11">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="J11" s="2">
         <v>1E-8</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K11" s="2">
         <v>1E-8</v>
       </c>
     </row>
